--- a/Project/Work/Оглавление тем РЭ РУМБ.xlsx
+++ b/Project/Work/Оглавление тем РЭ РУМБ.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="182">
   <si>
     <t>Тема (раздел)</t>
   </si>
@@ -559,6 +559,12 @@
   </si>
   <si>
     <t>Приведена комплектность изделия, рассматриваются его составные части и даётся ссылка на руководство по монтажу и другую докеументацию</t>
+  </si>
+  <si>
+    <t>Защита от повышения напряжения в трёхфазной сети</t>
+  </si>
+  <si>
+    <t>35</t>
   </si>
 </sst>
 </file>
@@ -956,10 +962,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F105"/>
+  <dimension ref="A1:F106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28:C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1265,18 +1271,12 @@
         <v>172</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C28" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1284,21 +1284,15 @@
         <v>12</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="C30" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1306,7 +1300,13 @@
         <v>35</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>63</v>
+        <v>50</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1314,7 +1314,13 @@
         <v>18</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>64</v>
+        <v>53</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="3:6" ht="45" x14ac:dyDescent="0.25">
@@ -1360,34 +1366,37 @@
         <v>66</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="3:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:6" ht="45" x14ac:dyDescent="0.25">
       <c r="C38" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="39" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6" ht="60" x14ac:dyDescent="0.25">
       <c r="C39" s="1" t="s">
         <v>70</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="40" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6" ht="45" x14ac:dyDescent="0.25">
       <c r="C40" s="1" t="s">
         <v>75</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="3:6" ht="30" x14ac:dyDescent="0.25">
@@ -1395,23 +1404,23 @@
         <v>80</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="42" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C42" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="43" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="3:6" ht="45" x14ac:dyDescent="0.25">
       <c r="C43" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="44" spans="3:6" ht="30" x14ac:dyDescent="0.25">
@@ -1419,7 +1428,7 @@
         <v>87</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="45" spans="3:6" ht="30" x14ac:dyDescent="0.25">
@@ -1427,15 +1436,15 @@
         <v>88</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="46" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="46" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C46" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
     </row>
     <row r="47" spans="3:6" ht="45" x14ac:dyDescent="0.25">
@@ -1443,7 +1452,7 @@
         <v>91</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="48" spans="3:6" ht="45" x14ac:dyDescent="0.25">
@@ -1451,15 +1460,15 @@
         <v>98</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="C49" s="1" t="s">
         <v>100</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1467,7 +1476,7 @@
         <v>103</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1475,7 +1484,7 @@
         <v>105</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1483,7 +1492,7 @@
         <v>109</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1491,7 +1500,7 @@
         <v>110</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1499,7 +1508,7 @@
         <v>111</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>159</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1507,15 +1516,15 @@
         <v>112</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C56" s="1" t="s">
         <v>121</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -1523,15 +1532,15 @@
         <v>123</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="C58" s="1" t="s">
         <v>125</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1539,15 +1548,15 @@
         <v>126</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C60" s="1" t="s">
         <v>128</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -1555,367 +1564,375 @@
         <v>138</v>
       </c>
       <c r="D61" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="C62" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B63" s="1" t="s">
         <v>170</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="C63" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C64" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C65" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D65" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="C65" s="1" t="s">
+    <row r="66" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="C66" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D66" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C66" s="1" t="s">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C67" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D67" s="1" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="C67" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C68" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C69" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D69" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="C69" s="1" t="s">
+    <row r="70" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="C70" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D70" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="C70" s="1" t="s">
+    <row r="71" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="C71" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D71" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
+    <row r="72" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B72" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="E72" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="C72" s="1" t="s">
+    <row r="73" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="C73" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D73" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="E73" s="1" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="C73" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C74" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="C75" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="D75" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="C75" s="1" t="s">
+    <row r="76" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C76" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="D76" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="C76" s="1" t="s">
+    <row r="77" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="C77" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="D77" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="C77" s="1" t="s">
+    <row r="78" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C78" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="D78" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="C78" s="1" t="s">
+    <row r="79" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="C79" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="D79" s="1" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="C79" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C80" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
     </row>
     <row r="81" spans="3:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C81" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="82" spans="3:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C82" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="83" spans="3:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C83" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="D83" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="83" spans="3:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="C83" s="1" t="s">
+    <row r="84" spans="3:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="C84" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="D84" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="84" spans="3:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="C84" s="1" t="s">
+    <row r="85" spans="3:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="C85" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="D85" s="1" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="85" spans="3:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="C85" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="86" spans="3:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C86" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="87" spans="3:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C87" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="D87" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="87" spans="3:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="C87" s="1" t="s">
+    <row r="88" spans="3:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="C88" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="D88" s="1" t="s">
         <v>161</v>
-      </c>
-    </row>
-    <row r="88" spans="3:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="C88" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="89" spans="3:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C89" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="90" spans="3:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C90" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="91" spans="3:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C91" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="D91" s="1" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="91" spans="3:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="C91" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="92" spans="3:4" ht="45" x14ac:dyDescent="0.25">
       <c r="C92" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="93" spans="3:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="C93" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="D93" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="3:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="C93" s="1" t="s">
+    <row r="94" spans="3:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C94" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="D94" s="1" t="s">
         <v>102</v>
-      </c>
-    </row>
-    <row r="94" spans="3:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="C94" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="95" spans="3:4" ht="75" x14ac:dyDescent="0.25">
       <c r="C95" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="96" spans="3:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="C96" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="D96" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="96" spans="3:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="C96" s="1" t="s">
+    <row r="97" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C97" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="D97" s="1" t="s">
         <v>113</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C97" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C98" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C99" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C100" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C101" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="D101" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="C101" s="1" t="s">
+    <row r="102" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C102" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="D102" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="C102" s="1" t="s">
+    <row r="103" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="C103" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D102" s="1" t="s">
+      <c r="D103" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="C103" s="1" t="s">
+    <row r="104" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="C104" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D103" s="1" t="s">
+      <c r="D104" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="C104" s="1" t="s">
+    <row r="105" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C105" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D104" s="1" t="s">
+      <c r="D105" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
+    <row r="106" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B106" s="1" t="s">
         <v>168</v>
       </c>
     </row>

--- a/Project/Work/Оглавление тем РЭ РУМБ.xlsx
+++ b/Project/Work/Оглавление тем РЭ РУМБ.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17301"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -528,9 +528,6 @@
     <t>Типовые неисправности и инструкции по их устранению</t>
   </si>
   <si>
-    <t>Защиты, обеспечиваемые пнрибором</t>
-  </si>
-  <si>
     <t>Статистика</t>
   </si>
   <si>
@@ -558,13 +555,16 @@
     <t>007</t>
   </si>
   <si>
-    <t>Приведена комплектность изделия, рассматриваются его составные части и даётся ссылка на руководство по монтажу и другую докеументацию</t>
-  </si>
-  <si>
     <t>Защита от повышения напряжения в трёхфазной сети</t>
   </si>
   <si>
     <t>35</t>
+  </si>
+  <si>
+    <t>Приведена комплектность изделия, рассматриваются его составные части и даётся ссылка на руководство по монтажу и другую документацию</t>
+  </si>
+  <si>
+    <t>Защиты, обеспечиваемые прибором</t>
   </si>
 </sst>
 </file>
@@ -962,10 +962,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F106"/>
+  <dimension ref="A1:F109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28:C34"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1077,7 +1077,7 @@
         <v>19</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -1178,7 +1178,7 @@
         <v>30</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>31</v>
@@ -1189,7 +1189,7 @@
         <v>10</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1197,7 +1197,7 @@
         <v>12</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1205,10 +1205,10 @@
         <v>40</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1265,18 +1265,24 @@
         <v>152</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="C28" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>62</v>
+        <v>50</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1284,7 +1290,13 @@
         <v>12</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1292,21 +1304,15 @@
         <v>15</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C31" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1314,13 +1320,10 @@
         <v>18</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="3:6" ht="45" x14ac:dyDescent="0.25">
@@ -1328,15 +1331,21 @@
         <v>20</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" ht="45" x14ac:dyDescent="0.25">
       <c r="C34" s="1" t="s">
         <v>56</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>67</v>
+        <v>178</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="3:6" ht="45" x14ac:dyDescent="0.25">
@@ -1344,21 +1353,18 @@
         <v>58</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>69</v>
+        <v>158</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="36" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" ht="60" x14ac:dyDescent="0.25">
       <c r="C36" s="1" t="s">
         <v>61</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="3:6" ht="45" x14ac:dyDescent="0.25">
@@ -1366,29 +1372,23 @@
         <v>66</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="38" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C38" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="39" spans="3:6" ht="60" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C39" s="1" t="s">
         <v>70</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="3:6" ht="45" x14ac:dyDescent="0.25">
@@ -1396,7 +1396,7 @@
         <v>75</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="3:6" ht="30" x14ac:dyDescent="0.25">
@@ -1404,7 +1404,7 @@
         <v>80</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42" spans="3:6" ht="30" x14ac:dyDescent="0.25">
@@ -1412,527 +1412,527 @@
         <v>83</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="43" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="43" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C43" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="44" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6" ht="45" x14ac:dyDescent="0.25">
       <c r="C44" s="1" t="s">
         <v>87</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="45" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="45" spans="3:6" ht="45" x14ac:dyDescent="0.25">
       <c r="C45" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="46" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="46" spans="3:6" ht="45" x14ac:dyDescent="0.25">
       <c r="C46" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="47" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="47" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C47" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="48" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="48" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C48" s="1" t="s">
         <v>98</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C49" s="1" t="s">
         <v>100</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C50" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C51" s="1" t="s">
         <v>105</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="52" spans="3:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C52" s="1" t="s">
         <v>109</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="53" spans="3:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C53" s="1" t="s">
         <v>110</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="54" spans="3:4" ht="45" x14ac:dyDescent="0.25">
       <c r="C54" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="55" spans="3:4" ht="45" x14ac:dyDescent="0.25">
       <c r="C55" s="1" t="s">
         <v>112</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="56" spans="3:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C56" s="1" t="s">
         <v>121</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="57" spans="3:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C57" s="1" t="s">
         <v>123</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="58" spans="3:4" ht="60" x14ac:dyDescent="0.25">
       <c r="C58" s="1" t="s">
         <v>125</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="59" spans="3:4" ht="60" x14ac:dyDescent="0.25">
       <c r="C59" s="1" t="s">
         <v>126</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="60" spans="3:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C60" s="1" t="s">
         <v>128</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="61" spans="3:4" ht="45" x14ac:dyDescent="0.25">
       <c r="C61" s="1" t="s">
         <v>138</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="62" spans="3:4" ht="45" x14ac:dyDescent="0.25">
       <c r="C62" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="C64" s="1" t="s">
+      <c r="B66" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C67" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D67" s="1" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="C65" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="C66" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C67" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C68" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="C69" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C70" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C71" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D71" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="C69" s="1" t="s">
+    <row r="72" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C72" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D72" s="1" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="C70" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="C71" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="C73" s="1" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>44</v>
+        <v>162</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C74" s="1" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="C75" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="C76" s="1" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>106</v>
+        <v>43</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C77" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="C78" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C79" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="C80" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="D80" s="1" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="C78" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="C79" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="C80" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="81" spans="3:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C81" s="1" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="82" spans="3:4" ht="30" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="82" spans="3:4" ht="60" x14ac:dyDescent="0.25">
       <c r="C82" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>131</v>
+        <v>46</v>
       </c>
     </row>
     <row r="83" spans="3:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C83" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="84" spans="3:4" ht="60" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="84" spans="3:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C84" s="1" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="85" spans="3:4" ht="45" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="85" spans="3:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C85" s="1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>49</v>
+        <v>131</v>
       </c>
     </row>
     <row r="86" spans="3:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C86" s="1" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="87" spans="3:4" ht="30" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="87" spans="3:4" ht="60" x14ac:dyDescent="0.25">
       <c r="C87" s="1" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="88" spans="3:4" ht="60" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="88" spans="3:4" ht="45" x14ac:dyDescent="0.25">
       <c r="C88" s="1" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>161</v>
+        <v>49</v>
       </c>
     </row>
     <row r="89" spans="3:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C89" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
     </row>
     <row r="90" spans="3:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C90" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="91" spans="3:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="C91" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="92" spans="3:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C92" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="93" spans="3:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C93" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="D93" s="1" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="91" spans="3:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="C91" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="92" spans="3:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="C92" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="93" spans="3:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="C93" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="94" spans="3:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C94" s="1" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="95" spans="3:4" ht="75" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="95" spans="3:4" ht="45" x14ac:dyDescent="0.25">
       <c r="C95" s="1" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="96" spans="3:4" ht="75" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="96" spans="3:4" ht="45" x14ac:dyDescent="0.25">
       <c r="C96" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>166</v>
+        <v>90</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C97" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="C98" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="C99" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C100" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="D100" s="1" t="s">
         <v>113</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C98" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C99" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C100" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C101" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C102" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C103" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C104" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="D104" s="1" t="s">
         <v>136</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="C102" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="C103" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="C104" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C105" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="C106" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="C107" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C108" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D105" s="1" t="s">
+      <c r="D108" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B106" s="1" t="s">
+    <row r="109" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>168</v>
       </c>
     </row>

--- a/Project/Work/Оглавление тем РЭ РУМБ.xlsx
+++ b/Project/Work/Оглавление тем РЭ РУМБ.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="184">
   <si>
     <t>Тема (раздел)</t>
   </si>
@@ -174,9 +174,6 @@
     <t>Защита от перегрузки</t>
   </si>
   <si>
-    <t>Даётся описание и таблицы для защиты ПЭД от перегрузок</t>
-  </si>
-  <si>
     <t>Технологические расчёты, используемые для задания режимов защиты от перегрузки.</t>
   </si>
   <si>
@@ -186,9 +183,6 @@
     <t>Технологические расчёты, используемые для задания режимов защиты от недогрузки.</t>
   </si>
   <si>
-    <t>Даётся описание и таблицы для защиты ПЭД от недогрузки</t>
-  </si>
-  <si>
     <t>07</t>
   </si>
   <si>
@@ -565,6 +559,20 @@
   </si>
   <si>
     <t>Защиты, обеспечиваемые прибором</t>
+  </si>
+  <si>
+    <t>Способы организации защиты</t>
+  </si>
+  <si>
+    <t>Даётся общее описание принципа организации защит в КСУ</t>
+  </si>
+  <si>
+    <t>Даётся описание и таблицы для защиты ПЭД от недогрузки
+Рис. 4.3., ф. 4.3.</t>
+  </si>
+  <si>
+    <t>Даётся описание и таблицы для защиты ПЭД от перегрузок
+Рис. 4.1, Рис. 4.2, Табл. 4.1, ф. 4.1, 4.2</t>
   </si>
 </sst>
 </file>
@@ -964,8 +972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -992,7 +1000,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1044,7 +1052,7 @@
         <v>34</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -1077,7 +1085,7 @@
         <v>19</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -1107,26 +1115,26 @@
     </row>
     <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1178,7 +1186,7 @@
         <v>30</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>31</v>
@@ -1189,7 +1197,7 @@
         <v>10</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1197,7 +1205,7 @@
         <v>12</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1205,10 +1213,10 @@
         <v>40</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1216,10 +1224,10 @@
         <v>10</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1227,10 +1235,10 @@
         <v>12</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1238,10 +1246,10 @@
         <v>15</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -1249,7 +1257,7 @@
         <v>35</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1257,32 +1265,29 @@
         <v>18</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C28" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>50</v>
+        <v>180</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>52</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1290,13 +1295,13 @@
         <v>12</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>55</v>
+        <v>183</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1304,26 +1309,29 @@
         <v>15</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="C31" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C32" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="3:6" ht="45" x14ac:dyDescent="0.25">
@@ -1331,256 +1339,264 @@
         <v>20</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="3:6" ht="45" x14ac:dyDescent="0.25">
       <c r="C34" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>178</v>
+        <v>69</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="3:6" ht="45" x14ac:dyDescent="0.25">
       <c r="C35" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="36" spans="3:6" ht="60" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" ht="45" x14ac:dyDescent="0.25">
       <c r="C36" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="37" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6" ht="60" x14ac:dyDescent="0.25">
       <c r="C37" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="C38" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="38" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C38" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="D38" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C39" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="40" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C40" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="41" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6" ht="45" x14ac:dyDescent="0.25">
       <c r="C41" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C42" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="43" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C43" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C44" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="44" spans="3:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="C44" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="D44" s="1" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45" spans="3:6" ht="45" x14ac:dyDescent="0.25">
       <c r="C45" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="46" spans="3:6" ht="45" x14ac:dyDescent="0.25">
       <c r="C46" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="47" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="C47" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="47" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C47" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="D47" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="48" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C48" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="49" spans="3:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C49" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="50" spans="3:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C50" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="51" spans="3:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C51" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="52" spans="3:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C52" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
     </row>
     <row r="53" spans="3:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C53" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="54" spans="3:4" ht="45" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="54" spans="3:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C54" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="55" spans="3:4" ht="45" x14ac:dyDescent="0.25">
       <c r="C55" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="56" spans="3:4" ht="30" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="56" spans="3:4" ht="45" x14ac:dyDescent="0.25">
       <c r="C56" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="57" spans="3:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C57" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="58" spans="3:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C58" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="58" spans="3:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="C58" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="D58" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="59" spans="3:4" ht="60" x14ac:dyDescent="0.25">
       <c r="C59" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="60" spans="3:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="C60" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D59" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="60" spans="3:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="C60" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="D60" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="61" spans="3:4" ht="45" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="61" spans="3:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C61" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="3:4" ht="45" x14ac:dyDescent="0.25">
       <c r="C62" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="3:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="D63" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1596,7 +1612,7 @@
         <v>12</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1604,7 +1620,7 @@
         <v>15</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -1612,7 +1628,7 @@
         <v>35</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1620,7 +1636,7 @@
         <v>18</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1628,28 +1644,28 @@
         <v>20</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="C73" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C74" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>41</v>
@@ -1677,7 +1693,7 @@
         <v>45</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1685,7 +1701,7 @@
         <v>15</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1693,7 +1709,7 @@
         <v>35</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1701,7 +1717,7 @@
         <v>18</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="81" spans="3:4" ht="30" x14ac:dyDescent="0.25">
@@ -1709,12 +1725,12 @@
         <v>20</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="82" spans="3:4" ht="60" x14ac:dyDescent="0.25">
       <c r="C82" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>46</v>
@@ -1722,39 +1738,39 @@
     </row>
     <row r="83" spans="3:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C83" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="84" spans="3:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C84" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="85" spans="3:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C85" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="86" spans="3:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C86" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="87" spans="3:4" ht="60" x14ac:dyDescent="0.25">
       <c r="C87" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>48</v>
@@ -1762,7 +1778,7 @@
     </row>
     <row r="88" spans="3:4" ht="45" x14ac:dyDescent="0.25">
       <c r="C88" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>49</v>
@@ -1770,170 +1786,170 @@
     </row>
     <row r="89" spans="3:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C89" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="90" spans="3:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C90" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="91" spans="3:4" ht="60" x14ac:dyDescent="0.25">
       <c r="C91" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="92" spans="3:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C92" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="93" spans="3:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C93" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="94" spans="3:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C94" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="95" spans="3:4" ht="45" x14ac:dyDescent="0.25">
       <c r="C95" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="96" spans="3:4" ht="45" x14ac:dyDescent="0.25">
       <c r="C96" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C97" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D97" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="C98" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="C99" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C100" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C101" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C102" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C103" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C104" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C105" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="C106" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="C107" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C108" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
